--- a/dependencies/brucella/melitensis-bv1/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/brucella/melitensis-bv1/script_dependents/Filtered_Regions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\melitensis-bv1\script_dependents\script2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/melitensis-bv1/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0AB99B-108C-D443-9D50-90F5321ACC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="825" windowWidth="24000" windowHeight="16365" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="24000" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NC_003317" sheetId="1" r:id="rId1"/>
-    <sheet name="NC_003318" sheetId="2" r:id="rId2"/>
+    <sheet name="NC_003317.1" sheetId="1" r:id="rId1"/>
+    <sheet name="NC_003318.1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -126,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1162,8 +1163,8 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="171"/>
-    <cellStyle name="Note 2" xfId="172"/>
+    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -1503,26 +1504,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.875" style="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>565</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>58608</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>58608</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>68513</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>148988</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>121166</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>194011</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>148988</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>194012</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>194011</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>194014</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>194012</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>194037</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>194014</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>194045</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>194037</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>194072</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>194045</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>194124</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>194072</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>233438</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>194124</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>234195</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>233438</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>312163</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>312163</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>374078</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>374078</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>410619</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>410619</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>416635</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>416635</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>424641</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>446529</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>446529</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>456058</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>456058</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>515704</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>515704</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>552711</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>552711</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>610481</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>610481</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>663049</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>663049</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>681321</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>681321</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>697816</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>697816</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>716896</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>721500</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>721500</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>846153</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>846153</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>919360</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>909819</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>979543</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>919360</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>1035945</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>938392</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>1043125</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>979543</v>
       </c>
@@ -2335,7 +2336,7 @@
         <v>1043322</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1035945</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>1043801</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1043125</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>1043815</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1043322</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>1044339</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1043801</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>1092849</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1043815</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>1092870</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1044339</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>1093447</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1092849</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>1119386</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1092870</v>
       </c>
@@ -2519,7 +2520,7 @@
         <v>1170930</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1093447</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>1209662</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1119386</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>1209667</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1170930</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>1209804</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1209662</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>1210295</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1209667</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>1210366</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1209804</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>1210381</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1210295</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>1228362</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1210366</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>1228366</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1210381</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>1228373</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1228362</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>1353791</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1228366</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>1358970</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1228373</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>1408301</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1353791</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>1415527</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1358970</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>1447675</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>1371460</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>1673571</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1371469</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>1751308</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1371473</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>1776123</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>1408301</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>1852193</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1415527</v>
       </c>
@@ -2956,7 +2957,7 @@
         <v>1852234</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1447675</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>1852783</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>1447682</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>1868832</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>1673571</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>1914988</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>1751308</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>1914998</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1776123</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>1915155</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1852193</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>1915158</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>1852234</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>1992150</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1852783</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>2048633</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1868832</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>1750937</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1914988</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>1458902</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>1914998</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>1460174</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>1915155</v>
       </c>
@@ -3164,7 +3165,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1915158</v>
       </c>
@@ -3173,7 +3174,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>1953083</v>
       </c>
@@ -3182,7 +3183,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>1992150</v>
       </c>
@@ -3191,7 +3192,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>1999556</v>
       </c>
@@ -3200,7 +3201,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>2048633</v>
       </c>
@@ -3209,7 +3210,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>2058687</v>
       </c>
@@ -3218,7 +3219,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
@@ -3227,7 +3228,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -3236,7 +3237,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
@@ -3245,7 +3246,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3255,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>4</v>
       </c>
@@ -3263,7 +3264,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>9</v>
       </c>
@@ -3272,7 +3273,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -3281,7 +3282,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>15</v>
       </c>
@@ -3290,7 +3291,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>14</v>
       </c>
@@ -3299,7 +3300,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>18</v>
       </c>
@@ -3308,7 +3309,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3317,7 +3318,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>12</v>
       </c>
@@ -3326,7 +3327,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>13</v>
       </c>
@@ -3335,7 +3336,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>24</v>
       </c>
@@ -3344,240 +3345,240 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="5:8">
+    <row r="97" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="5:8">
+    <row r="98" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="5:8">
+    <row r="99" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="5:8">
+    <row r="100" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="5:8">
+    <row r="101" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="5:8">
+    <row r="102" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="5:8">
+    <row r="103" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="5:8">
+    <row r="104" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="5:8">
+    <row r="105" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="5:8">
+    <row r="106" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="5:8">
+    <row r="107" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="5:8">
+    <row r="108" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="5:8">
+    <row r="109" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="5:8">
+    <row r="110" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="5:8">
+    <row r="111" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="5:8">
+    <row r="112" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="5:8">
+    <row r="113" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="5:8">
+    <row r="114" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="5:8">
+    <row r="115" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="5:8">
+    <row r="116" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="5:8">
+    <row r="117" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="5:8">
+    <row r="118" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="5:8">
+    <row r="119" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="5:8">
+    <row r="120" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="5:8">
+    <row r="121" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="5:8">
+    <row r="122" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="5:8">
+    <row r="123" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="5:8">
+    <row r="124" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="5:8">
+    <row r="125" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="5:8">
+    <row r="126" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="5:8">
+    <row r="127" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="5:8">
+    <row r="128" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="8:8">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="8:8">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="8:8">
+    <row r="131" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="8:8">
+    <row r="132" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="8:8">
+    <row r="133" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="8:8">
+    <row r="134" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="8:8">
+    <row r="135" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="8:8">
+    <row r="136" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="8:8">
+    <row r="137" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="8:8">
+    <row r="138" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="8:8">
+    <row r="139" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="8:8">
+    <row r="140" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="8:8">
+    <row r="141" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="8:8">
+    <row r="142" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="8:8">
+    <row r="143" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="8:8">
+    <row r="144" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="8:8">
+    <row r="145" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H145" s="4"/>
     </row>
   </sheetData>
@@ -3590,24 +3591,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>104289</v>
       </c>
@@ -3663,7 +3664,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>104295</v>
       </c>
@@ -3690,7 +3691,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>290128</v>
       </c>
@@ -3717,7 +3718,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>371719</v>
       </c>
@@ -3744,7 +3745,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>465704</v>
       </c>
@@ -3771,7 +3772,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>530022</v>
       </c>
@@ -3798,7 +3799,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>538756</v>
       </c>
@@ -3825,7 +3826,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>563445</v>
       </c>
@@ -3852,7 +3853,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>563451</v>
       </c>
@@ -3879,7 +3880,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>563452</v>
       </c>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>577010</v>
       </c>
@@ -3931,7 +3932,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>633244</v>
       </c>
@@ -3956,7 +3957,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>673022</v>
       </c>
@@ -3981,7 +3982,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>694478</v>
       </c>
@@ -4006,7 +4007,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>729685</v>
       </c>
@@ -4031,7 +4032,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>741425</v>
       </c>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>742575</v>
       </c>
@@ -4081,7 +4082,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>751471</v>
       </c>
@@ -4106,7 +4107,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>757373</v>
       </c>
@@ -4131,7 +4132,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>757950</v>
       </c>
@@ -4156,7 +4157,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>757971</v>
       </c>
@@ -4181,7 +4182,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>760100</v>
       </c>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>788412</v>
       </c>
@@ -4221,7 +4222,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>841460</v>
       </c>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>863565</v>
       </c>
@@ -4249,7 +4250,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>909770</v>
       </c>
@@ -4262,7 +4263,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>962900</v>
       </c>
@@ -4275,7 +4276,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>975272</v>
       </c>
@@ -4288,7 +4289,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1026846</v>
       </c>
@@ -4301,7 +4302,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1092103</v>
       </c>
@@ -4314,7 +4315,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -4327,7 +4328,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -4340,7 +4341,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -4353,7 +4354,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
@@ -4366,7 +4367,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>16</v>
       </c>
@@ -4379,7 +4380,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -4392,7 +4393,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -4405,7 +4406,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
@@ -4418,7 +4419,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
